--- a/Data/modified_parameters_scenario_4/Energy_and_Carbon_Intensity_TEK_driven.xlsx
+++ b/Data/modified_parameters_scenario_4/Energy_and_Carbon_Intensity_TEK_driven.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/954e9104582efe7e/Documents/Python/TEP4290_project/data/modified_parameters_scenario_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{3397F67A-5B9B-4B0A-8378-983BF655C18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{791F9D81-1084-4ACE-9540-5B413A4E6D52}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{3397F67A-5B9B-4B0A-8378-983BF655C18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A960E84D-1AC5-4543-8888-90E82EA239F0}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="4080" windowWidth="10980" windowHeight="6000" xr2:uid="{F4E8390B-483F-422E-B7C5-574351223529}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F4E8390B-483F-422E-B7C5-574351223529}"/>
   </bookViews>
   <sheets>
     <sheet name="SFH_Energy" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D6B966-DFB4-40AE-99F8-842C4D9C7419}">
   <dimension ref="A1:D452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="F458" sqref="F458"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6770,7 +6770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3203B1E6-154A-4492-AF67-38440C1B58B5}">
   <dimension ref="A1:D452"/>
   <sheetViews>
-    <sheetView topLeftCell="A443" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A452" sqref="A2:A452"/>
     </sheetView>
   </sheetViews>
@@ -13113,7 +13113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41723DD0-F0D6-4175-B41A-A325AB9C10B5}">
   <dimension ref="A1:D452"/>
   <sheetViews>
-    <sheetView topLeftCell="A443" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A452" sqref="A2:A452"/>
     </sheetView>
   </sheetViews>
@@ -25799,7 +25799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666C96B2-863E-465B-9A83-C3760A2AEFC4}">
   <dimension ref="A1:D452"/>
   <sheetViews>
-    <sheetView topLeftCell="A435" workbookViewId="0">
+    <sheetView topLeftCell="A396" workbookViewId="0">
       <selection activeCell="J454" sqref="J454"/>
     </sheetView>
   </sheetViews>
